--- a/docs/excel/TLevelCarPart.xlsx
+++ b/docs/excel/TLevelCarPart.xlsx
@@ -1,85 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TLevelCarPart" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>PartType</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+  </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -88,67 +62,248 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1 轮胎 2 油箱 3 后备箱 4 发动机 5 电瓶)</t>
   </si>
   <si>
     <t>TableName: "TLevelCarPart" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +316,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,12 +511,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -183,31 +766,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,104 +1156,111 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="1" max="2" width="50" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.4" customWidth="1"/>
+    <col min="4" max="4" width="10.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:2">
       <c r="A6"/>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:2">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:2">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:2">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:1">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:2">
       <c r="A16"/>
       <c r="B16"/>
     </row>
@@ -634,7 +1268,7 @@
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1">
       <c r="A18"/>
     </row>
     <row r="19" spans="1:2">
@@ -645,986 +1279,986 @@
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:1">
       <c r="A21"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:1">
       <c r="A23"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:1">
       <c r="A25"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:1">
       <c r="A28"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:1">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:1">
       <c r="A31"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:1">
       <c r="A38"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:1">
       <c r="A40"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:1">
       <c r="A44"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:1">
       <c r="A46"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:1">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:1">
       <c r="A50"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:1">
       <c r="A52"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:1">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:1">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:1">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:1">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:1">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:1">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:1">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:1">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:1">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:1">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:1">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:1">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:1">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:1">
       <c r="A67"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:1">
       <c r="A69"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:1">
       <c r="A71"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:1">
       <c r="A73"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:1">
       <c r="A75"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:1">
       <c r="A77"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:1">
       <c r="A79"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:1">
       <c r="A81"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:1">
       <c r="A83"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:1">
       <c r="A85"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:1">
       <c r="A87"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:1">
       <c r="A89"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:1">
       <c r="A91"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:1">
       <c r="A93"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:1">
       <c r="A95"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:1">
       <c r="A97"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:1">
       <c r="A99"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:1">
       <c r="A101"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:1">
       <c r="A103"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:1">
       <c r="A105"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:1">
       <c r="A107"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:1">
       <c r="A109"/>
     </row>
     <row r="110" spans="1:2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:1">
       <c r="A111"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:1">
       <c r="A113"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:1">
       <c r="A115"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:1">
       <c r="A117"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:1">
       <c r="A119"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:1">
       <c r="A121"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:1">
       <c r="A123"/>
     </row>
     <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:1">
       <c r="A125"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:1">
       <c r="A127"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:1">
       <c r="A129"/>
     </row>
     <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:1">
       <c r="A131"/>
     </row>
     <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:1">
       <c r="A133"/>
     </row>
     <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:1">
       <c r="A135"/>
     </row>
     <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:1">
       <c r="A137"/>
     </row>
     <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:1">
       <c r="A139"/>
     </row>
     <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:1">
       <c r="A141"/>
     </row>
     <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:1">
       <c r="A143"/>
     </row>
     <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:1">
       <c r="A145"/>
     </row>
     <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:1">
       <c r="A147"/>
     </row>
     <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:1">
       <c r="A149"/>
     </row>
     <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:1">
       <c r="A151"/>
     </row>
     <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:1">
       <c r="A153"/>
     </row>
     <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:1">
       <c r="A155"/>
     </row>
     <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:1">
       <c r="A157"/>
     </row>
     <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:1">
       <c r="A159"/>
     </row>
     <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:1">
       <c r="A161"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:1">
       <c r="A163"/>
     </row>
     <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:1">
       <c r="A165"/>
     </row>
     <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:1">
       <c r="A167"/>
     </row>
     <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:1">
       <c r="A169"/>
     </row>
     <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:1">
       <c r="A171"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:1">
       <c r="A173"/>
     </row>
     <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:1">
       <c r="A175"/>
     </row>
     <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:1">
       <c r="A177"/>
     </row>
     <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:1">
       <c r="A179"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:1">
       <c r="A181"/>
     </row>
     <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:1">
       <c r="A183"/>
     </row>
     <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:1">
       <c r="A185"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:1">
       <c r="A187"/>
     </row>
     <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:1">
       <c r="A189"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:1">
       <c r="A191"/>
     </row>
     <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:1">
       <c r="A193"/>
     </row>
     <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:1">
       <c r="A195"/>
     </row>
     <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:1">
       <c r="A197"/>
     </row>
     <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:1">
       <c r="A199"/>
     </row>
     <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:1">
       <c r="A201"/>
     </row>
     <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:1">
       <c r="A203"/>
     </row>
     <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:1">
       <c r="A205"/>
     </row>
     <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:1">
       <c r="A207"/>
     </row>
     <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:1">
       <c r="A209"/>
     </row>
     <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:1">
       <c r="A211"/>
     </row>
     <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:1">
       <c r="A213"/>
     </row>
     <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:1">
       <c r="A215"/>
     </row>
     <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:1">
       <c r="A217"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:1">
       <c r="A219"/>
     </row>
     <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:1">
       <c r="A221"/>
     </row>
     <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:1">
       <c r="A223"/>
     </row>
     <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:1">
       <c r="A225"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:1">
       <c r="A227"/>
     </row>
     <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:1">
       <c r="A229"/>
     </row>
     <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:1">
       <c r="A231"/>
     </row>
     <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:1">
       <c r="A233"/>
     </row>
     <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:1">
       <c r="A235"/>
     </row>
     <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:1">
       <c r="A237"/>
     </row>
     <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:1">
       <c r="A239"/>
     </row>
     <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:1">
       <c r="A241"/>
     </row>
     <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:1">
       <c r="A243"/>
     </row>
     <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:1">
       <c r="A245"/>
     </row>
     <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:1">
       <c r="A247"/>
     </row>
     <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:1">
       <c r="A249"/>
     </row>
     <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:1">
       <c r="A251"/>
     </row>
     <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:1">
       <c r="A253"/>
     </row>
     <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:1">
       <c r="A255"/>
     </row>
     <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:1">
       <c r="A257"/>
     </row>
     <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:1">
       <c r="A259"/>
     </row>
     <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:1">
       <c r="A261"/>
     </row>
     <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:1">
       <c r="A263"/>
     </row>
     <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:1">
       <c r="A265"/>
     </row>
     <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:1">
       <c r="A267"/>
     </row>
     <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:1">
       <c r="A269"/>
     </row>
     <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:1">
       <c r="A271"/>
     </row>
     <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:1">
       <c r="A273"/>
     </row>
     <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:1">
       <c r="A275"/>
     </row>
     <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:1">
       <c r="A277"/>
     </row>
     <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:1">
       <c r="A279"/>
     </row>
     <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:1">
       <c r="A281"/>
     </row>
     <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:1">
       <c r="A283"/>
     </row>
     <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:1">
       <c r="A285"/>
     </row>
     <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:1">
       <c r="A287"/>
     </row>
     <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:1">
       <c r="A289"/>
     </row>
     <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:1">
       <c r="A291"/>
     </row>
     <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:1">
       <c r="A293"/>
     </row>
     <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:1">
       <c r="A295"/>
     </row>
     <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:1">
       <c r="A297"/>
     </row>
     <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:1">
       <c r="A299"/>
     </row>
     <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:1">
       <c r="A301"/>
     </row>
     <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:1">
       <c r="A303"/>
     </row>
     <row r="304" spans="1:2">
@@ -1632,9 +2266,8 @@
       <c r="B304"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1643,79 +2276,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="70" style="3" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="3"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="70" style="1" customWidth="1"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>2</v>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/docs/excel/TLevelCarPart.xlsx
+++ b/docs/excel/TLevelCarPart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TLevelCarPart" sheetId="1" r:id="rId1"/>
@@ -135,12 +135,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -150,6 +145,35 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -166,11 +190,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,15 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,32 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,24 +260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +274,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -318,25 +313,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +451,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,12 +487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,114 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +512,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,50 +587,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,151 +609,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,16 +761,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1160,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1217,97 +1212,177 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5"/>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>130001</v>
+      </c>
       <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>130002</v>
+      </c>
       <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>130003</v>
+      </c>
       <c r="B7"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>130004</v>
+      </c>
       <c r="B8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>130005</v>
+      </c>
       <c r="B9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>130006</v>
+      </c>
       <c r="B10"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11"/>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>130007</v>
+      </c>
       <c r="B11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>130008</v>
+      </c>
       <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13"/>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>130009</v>
+      </c>
       <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14"/>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>130010</v>
+      </c>
       <c r="B14"/>
+      <c r="C14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15"/>
+      <c r="A15">
+        <v>130011</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16"/>
+      <c r="A16">
+        <v>130012</v>
+      </c>
       <c r="B16"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17"/>
+      <c r="A17">
+        <v>130013</v>
+      </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18"/>
+      <c r="A18">
+        <v>130014</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19"/>
+      <c r="A19">
+        <v>130015</v>
+      </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20"/>
+      <c r="A20">
+        <v>130016</v>
+      </c>
       <c r="B20"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21"/>
+      <c r="A21">
+        <v>130017</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22"/>
+      <c r="A22">
+        <v>130018</v>
+      </c>
       <c r="B22"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23"/>
+      <c r="A23">
+        <v>130019</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24"/>
+      <c r="A24">
+        <v>130020</v>
+      </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25"/>
+      <c r="A25">
+        <v>130021</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26"/>
+      <c r="A26">
+        <v>130022</v>
+      </c>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27"/>
+      <c r="A27">
+        <v>130023</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28"/>
+      <c r="A28">
+        <v>130024</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29"/>
+      <c r="A29">
+        <v>130025</v>
+      </c>
       <c r="B29"/>
     </row>
     <row r="30" spans="1:1">

--- a/docs/excel/TLevelCarPart.xlsx
+++ b/docs/excel/TLevelCarPart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28455" windowHeight="12060" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TLevelCarPart" sheetId="1" r:id="rId1"/>
@@ -148,28 +148,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,18 +161,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +208,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,21 +230,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -254,30 +253,31 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,9 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,18 +313,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,61 +439,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,90 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,8 +510,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,60 +596,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -595,162 +604,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1216,174 +1216,276 @@
       <c r="A5">
         <v>130001</v>
       </c>
-      <c r="B5"/>
+      <c r="B5">
+        <v>100</v>
+      </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>130002</v>
       </c>
-      <c r="B6"/>
+      <c r="B6">
+        <v>200</v>
+      </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>130003</v>
       </c>
-      <c r="B7"/>
+      <c r="B7">
+        <v>300</v>
+      </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>130004</v>
       </c>
-      <c r="B8"/>
+      <c r="B8">
+        <v>400</v>
+      </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>130005</v>
       </c>
-      <c r="B9"/>
+      <c r="B9">
+        <v>500</v>
+      </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>130006</v>
       </c>
-      <c r="B10"/>
+      <c r="B10">
+        <v>100</v>
+      </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>130007</v>
       </c>
-      <c r="B11"/>
+      <c r="B11">
+        <v>200</v>
+      </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
         <v>130008</v>
       </c>
-      <c r="B12"/>
+      <c r="B12">
+        <v>300</v>
+      </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>130009</v>
       </c>
-      <c r="B13"/>
+      <c r="B13">
+        <v>400</v>
+      </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
         <v>130010</v>
       </c>
-      <c r="B14"/>
+      <c r="B14">
+        <v>500</v>
+      </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>130011</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>130012</v>
       </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>130013</v>
       </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>130014</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>130015</v>
       </c>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>130016</v>
       </c>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>130017</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>130018</v>
       </c>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>130019</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>130020</v>
       </c>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>130021</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>130022</v>
       </c>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>130023</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>130024</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>130025</v>
       </c>
-      <c r="B29"/>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30"/>
